--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_20-08.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_20-08.xlsx
@@ -251,7 +251,7 @@
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
-    <t>0:19</t>
+    <t>0:18</t>
   </si>
   <si>
     <t>RAMECEFTRAX 1 GM IV VIAL</t>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>-1:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كريم ايفا  وسط</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -2316,7 +2319,7 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>150.40000000000001</v>
+        <v>188</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2934,17 +2937,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2952,7 +2955,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2960,17 +2963,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -2986,13 +2989,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3012,13 +3015,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3038,51 +3041,77 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="85" ht="26.25" customHeight="1">
-      <c r="K85" s="10">
-        <v>5114.8400000000001</v>
-      </c>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="11">
+    <row r="85" ht="25.5" customHeight="1">
+      <c r="A85" s="6">
+        <v>82</v>
+      </c>
+      <c t="s" r="B85" s="7">
+        <v>118</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c t="s" r="H85" s="8">
         <v>119</v>
       </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c t="s" r="F86" s="12">
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="9">
+        <v>65</v>
+      </c>
+      <c r="M85" s="9"/>
+      <c t="s" r="N85" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="K86" s="10">
+        <v>5187.4399999999996</v>
+      </c>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="11">
         <v>120</v>
       </c>
-      <c r="G86" s="12"/>
-      <c r="H86" s="13"/>
-      <c t="s" r="I86" s="14">
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c t="s" r="F87" s="12">
         <v>121</v>
       </c>
-      <c r="J86" s="14"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="13"/>
+      <c t="s" r="I87" s="14">
+        <v>122</v>
+      </c>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="254">
+  <mergeCells count="257">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3333,10 +3362,13 @@
     <mergeCell ref="B84:G84"/>
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="I86:N86"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="I87:N87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
